--- a/통합 문서1.xlsx
+++ b/통합 문서1.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jjay\Documents\student-manager\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\City\Documents\github\student-manager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4CC258B9-EEA1-4FD1-9518-C6D3DD98B628}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15600" xr2:uid="{5EDEA94B-98F5-41B4-8D93-8B60D17BD4E0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,15 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>학번</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>김지숙</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,13 +69,105 @@
   </si>
   <si>
     <t>박진태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>민준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>준서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지훈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우철</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>민서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도윤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>민재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>승현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연우</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -124,8 +207,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -441,101 +527,137 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7302919E-2864-492C-A401-C618F2D8CDB4}">
-  <dimension ref="A1:B11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>10301</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>10302</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>10303</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>10304</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>10305</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>10306</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>10307</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>10308</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>10309</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>10310</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
+      <c r="C11" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/통합 문서1.xlsx
+++ b/통합 문서1.xlsx
@@ -112,18 +112,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>우철</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -161,6 +149,18 @@
   </si>
   <si>
     <t>연우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -531,7 +531,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -541,13 +541,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -558,7 +558,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -569,7 +569,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -580,7 +580,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -591,7 +591,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -602,7 +602,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -613,7 +613,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -624,7 +624,7 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -635,7 +635,7 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -646,7 +646,7 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -657,7 +657,7 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
